--- a/Documentacao/backlog.xlsx
+++ b/Documentacao/backlog.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.ricardo.l.leao\Documents\FACULDADE\Repositório PI\Projeto-PI-3-Semestre\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5CE56C-77EB-44B8-A75E-CD11275543E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FEB4B-DECE-4B0A-A1C4-C9F97B81B23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{865584E7-0B81-4D23-A1E8-9B6EE134865F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{865584E7-0B81-4D23-A1E8-9B6EE134865F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="BACKLOG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="74">
   <si>
     <t>Estado</t>
   </si>
@@ -106,9 +106,6 @@
     <t>US002</t>
   </si>
   <si>
-    <t>Interface intuitiva</t>
-  </si>
-  <si>
     <t>A aplicação deverá conter uma interface intuitiva para navegação do usuário</t>
   </si>
   <si>
@@ -173,6 +170,93 @@
   </si>
   <si>
     <t>O usuário que realizar uma denúncia deverá ser informado das possíveis consequências legais de suas ações</t>
+  </si>
+  <si>
+    <t>US011</t>
+  </si>
+  <si>
+    <t>Interface de backoffice</t>
+  </si>
+  <si>
+    <t>O site deverá ter uma interface de acesso do backoffice simplificada para tratativa de denúncias</t>
+  </si>
+  <si>
+    <t>US012</t>
+  </si>
+  <si>
+    <t>Denúncias anônimas</t>
+  </si>
+  <si>
+    <t>O site deverá enviar as denúncias de forma anônima para manter a integridade do usuário que enviou</t>
+  </si>
+  <si>
+    <t>O site deverá contar com uma tela de cadastro integrado ao Postman</t>
+  </si>
+  <si>
+    <t>CRUD de denúncias</t>
+  </si>
+  <si>
+    <t>O usuário terá um CRUD de denúncias que ele realiza</t>
+  </si>
+  <si>
+    <t>Pendenciamento de denúncias</t>
+  </si>
+  <si>
+    <t>Denúncias de usuários contestadas por alguém deverão ser pendenciadas e validadas pelo backoffice</t>
+  </si>
+  <si>
+    <t>UX008</t>
+  </si>
+  <si>
+    <t>Termos do usuário</t>
+  </si>
+  <si>
+    <t>O usuário deverá assinar um termo de responsabilidade ao realizar uma denúncia</t>
+  </si>
+  <si>
+    <t>Cadastro via Postman</t>
+  </si>
+  <si>
+    <t>O site deverá filtrar as denúncias apresentadas ao usuário por região escolhida como favorita</t>
+  </si>
+  <si>
+    <t>Interface simplificada</t>
+  </si>
+  <si>
+    <t>O usuário de backoffice terá uma interface simplificada que o facilite em analisar as denúncias contestadas</t>
+  </si>
+  <si>
+    <t>O site deverá conter uma palleta de cores que vise acolher e transmitir segurança ao usuário</t>
+  </si>
+  <si>
+    <t>Palleta de cores acolhedora</t>
+  </si>
+  <si>
+    <t>Site institucional</t>
+  </si>
+  <si>
+    <t>O site deverá conter uma paágina institucional explicando sobre a solução</t>
+  </si>
+  <si>
+    <t>Interface intuitiva de usuário</t>
+  </si>
+  <si>
+    <t>Mapa de empatia</t>
+  </si>
+  <si>
+    <t>O projeto deverá conter um mapa de empatia para mapeamento de comportamentos e características dos possíves usuários da aplicação</t>
+  </si>
+  <si>
+    <t>API Rest</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter seus processos baseados em REST</t>
+  </si>
+  <si>
+    <t>Engenharia de Software</t>
+  </si>
+  <si>
+    <t>Programação web</t>
   </si>
 </sst>
 </file>
@@ -359,7 +443,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -441,7 +525,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -553,13 +637,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -598,6 +675,13 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -848,13 +932,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -895,6 +972,13 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -943,7 +1027,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A17003-A03F-451D-BFC1-CE02FEBCFA41}" name="Table1" displayName="Table1" ref="C2:G3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6A17003-A03F-451D-BFC1-CE02FEBCFA41}" name="Table1" displayName="Table1" ref="C2:G3" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="C2:G3" xr:uid="{A6A17003-A03F-451D-BFC1-CE02FEBCFA41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{CA70958A-B372-4C58-94EE-4FF81B7F7F9B}" name="Estado" dataDxfId="14"/>
@@ -957,14 +1041,14 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A67635E8-509B-47B7-9664-1014B439C066}" name="Table13" displayName="Table13" ref="B2:F3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A67635E8-509B-47B7-9664-1014B439C066}" name="Table13" displayName="Table13" ref="B2:F3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B2:F3" xr:uid="{A67635E8-509B-47B7-9664-1014B439C066}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2B9C9BED-EFEA-4D63-91A0-7DAD38BAC329}" name="Estado" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{19768241-406B-4A2E-B6AC-FFB17E138A6A}" name="Artefato de referência" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{32505736-18F4-4711-B314-E004A74D92D9}" name="Requisito" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F3BB2DD4-7978-4824-9F10-A9BEF45B3697}" name="Descrição do requisito" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D71E0D43-6F99-414E-85B8-A00BC25680BF}" name="Categoria" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{32505736-18F4-4711-B314-E004A74D92D9}" name="Requisito" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F3BB2DD4-7978-4824-9F10-A9BEF45B3697}" name="Descrição do requisito" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{D71E0D43-6F99-414E-85B8-A00BC25680BF}" name="Categoria" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1267,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F0564-4128-4494-9640-88B03B08AED0}">
-  <dimension ref="C1:K33"/>
+  <dimension ref="C1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="97" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showGridLines="0" zoomScale="41" workbookViewId="0">
+      <selection activeCell="G14" sqref="C14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,7 +1392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1411,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1344,7 +1428,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1361,7 +1445,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1378,24 +1462,24 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
@@ -1403,287 +1487,277 @@
         <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="G8" s="12"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="G10" s="7"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="G11" s="12"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="G13" s="7"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+    <row r="15" spans="3:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1698,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95509DDE-3A27-4A3B-9AD5-40369C10ED19}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1782,7 @@
     <col min="8" max="10" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1809,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1746,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="3"/>
@@ -1754,7 +1828,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1762,16 +1836,16 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1788,7 +1862,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1805,7 +1879,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -1822,237 +1896,296 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+    <row r="8" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    <row r="9" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+    <row r="10" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+    <row r="11" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="12"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+    <row r="12" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    <row r="13" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+    <row r="14" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="12"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+    <row r="15" spans="2:10" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
     <row r="25" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
     <row r="31" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+    <row r="33" spans="7:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
